--- a/MockData/All_DATA.xlsx
+++ b/MockData/All_DATA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085" firstSheet="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085"/>
   </bookViews>
   <sheets>
     <sheet name="Myyntidata generate" sheetId="1" r:id="rId1"/>
@@ -9939,7 +9939,7 @@
   <dimension ref="A1:C300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9963,3613 +9963,3613 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <f ca="1">RANDBETWEEN(1, 1000)</f>
-        <v>199</v>
+        <v>389</v>
       </c>
       <c r="B2">
         <f ca="1">RANDBETWEEN(1, 500)</f>
-        <v>261</v>
+        <v>381</v>
       </c>
       <c r="C2" s="1">
         <f ca="1">RANDBETWEEN(44000, 44500)</f>
-        <v>44498</v>
+        <v>44470</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ref="A3:A66" ca="1" si="0">RANDBETWEEN(1, 1000)</f>
-        <v>949</v>
+        <v>896</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B66" ca="1" si="1">RANDBETWEEN(1, 500)</f>
-        <v>472</v>
+        <v>286</v>
       </c>
       <c r="C3" s="1">
         <f t="shared" ref="C3:C66" ca="1" si="2">RANDBETWEEN(44000, 44500)</f>
-        <v>44487</v>
+        <v>44430</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ca="1" si="0"/>
-        <v>586</v>
+        <v>307</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>153</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44350</v>
+        <v>44373</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ca="1" si="0"/>
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44276</v>
+        <v>44157</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ca="1" si="0"/>
-        <v>789</v>
+        <v>108</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>279</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44446</v>
+        <v>44371</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="0"/>
-        <v>372</v>
+        <v>545</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="1"/>
-        <v>337</v>
+        <v>100</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44445</v>
+        <v>44119</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ca="1" si="0"/>
-        <v>588</v>
+        <v>889</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="1"/>
-        <v>104</v>
+        <v>191</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44238</v>
+        <v>44484</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ca="1" si="0"/>
-        <v>209</v>
+        <v>145</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="1"/>
-        <v>176</v>
+        <v>330</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44028</v>
+        <v>44051</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" ca="1" si="0"/>
-        <v>472</v>
+        <v>736</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="1"/>
-        <v>210</v>
+        <v>316</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44188</v>
+        <v>44418</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ca="1" si="0"/>
-        <v>845</v>
+        <v>263</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="1"/>
-        <v>361</v>
+        <v>274</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44275</v>
+        <v>44373</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ca="1" si="0"/>
-        <v>686</v>
+        <v>591</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>355</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44030</v>
+        <v>44206</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ca="1" si="0"/>
-        <v>705</v>
+        <v>91</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="1"/>
-        <v>371</v>
+        <v>317</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44280</v>
+        <v>44206</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ca="1" si="0"/>
-        <v>965</v>
+        <v>840</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="1"/>
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44416</v>
+        <v>44009</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>772</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="1"/>
-        <v>425</v>
+        <v>133</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44139</v>
+        <v>44433</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" ca="1" si="0"/>
-        <v>937</v>
+        <v>222</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="1"/>
-        <v>243</v>
+        <v>471</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44311</v>
+        <v>44344</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ca="1" si="0"/>
-        <v>569</v>
+        <v>84</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>186</v>
+        <v>446</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44432</v>
+        <v>44273</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ca="1" si="0"/>
-        <v>472</v>
+        <v>199</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>353</v>
+        <v>383</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44422</v>
+        <v>44084</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" ca="1" si="0"/>
-        <v>935</v>
+        <v>875</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>464</v>
+        <v>139</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44079</v>
+        <v>44338</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" ca="1" si="0"/>
-        <v>679</v>
+        <v>721</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>297</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44347</v>
+        <v>44116</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>175</v>
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="1"/>
-        <v>288</v>
+        <v>12</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44455</v>
+        <v>44053</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" ca="1" si="0"/>
-        <v>574</v>
+        <v>91</v>
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="1"/>
-        <v>384</v>
+        <v>279</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44373</v>
+        <v>44156</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" ca="1" si="0"/>
-        <v>474</v>
+        <v>287</v>
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="1"/>
-        <v>224</v>
+        <v>327</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44254</v>
+        <v>44433</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" ca="1" si="0"/>
-        <v>352</v>
+        <v>5</v>
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="1"/>
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44446</v>
+        <v>44119</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" ca="1" si="0"/>
-        <v>590</v>
+        <v>793</v>
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>266</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44403</v>
+        <v>44293</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" ca="1" si="0"/>
-        <v>679</v>
+        <v>715</v>
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="1"/>
-        <v>469</v>
+        <v>150</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44019</v>
+        <v>44336</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" ca="1" si="0"/>
-        <v>883</v>
+        <v>522</v>
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="1"/>
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44117</v>
+        <v>44008</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" ca="1" si="0"/>
-        <v>946</v>
+        <v>820</v>
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>207</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44008</v>
+        <v>44077</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" ca="1" si="0"/>
-        <v>781</v>
+        <v>72</v>
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="1"/>
-        <v>375</v>
+        <v>460</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44460</v>
+        <v>44198</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" ca="1" si="0"/>
-        <v>483</v>
+        <v>718</v>
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="1"/>
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44443</v>
+        <v>44204</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" ca="1" si="0"/>
-        <v>632</v>
+        <v>432</v>
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="1"/>
-        <v>135</v>
+        <v>272</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44068</v>
+        <v>44374</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>847</v>
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44034</v>
+        <v>44314</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" ca="1" si="0"/>
-        <v>514</v>
+        <v>716</v>
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="1"/>
-        <v>373</v>
+        <v>478</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44359</v>
+        <v>44000</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" ca="1" si="0"/>
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>442</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44000</v>
+        <v>44055</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" ca="1" si="0"/>
-        <v>235</v>
+        <v>691</v>
       </c>
       <c r="B35">
         <f t="shared" ca="1" si="1"/>
-        <v>377</v>
+        <v>429</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44141</v>
+        <v>44061</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" ca="1" si="0"/>
-        <v>115</v>
+        <v>384</v>
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="1"/>
-        <v>498</v>
+        <v>427</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44210</v>
+        <v>44394</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" ca="1" si="0"/>
-        <v>345</v>
+        <v>227</v>
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44103</v>
+        <v>44002</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" ca="1" si="0"/>
-        <v>495</v>
+        <v>764</v>
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="1"/>
-        <v>484</v>
+        <v>361</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44362</v>
+        <v>44291</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" ca="1" si="0"/>
-        <v>451</v>
+        <v>945</v>
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="1"/>
-        <v>426</v>
+        <v>467</v>
       </c>
       <c r="C39" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44304</v>
+        <v>44139</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" ca="1" si="0"/>
-        <v>568</v>
+        <v>254</v>
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="1"/>
-        <v>381</v>
+        <v>109</v>
       </c>
       <c r="C40" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44264</v>
+        <v>44062</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="1"/>
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C41" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44459</v>
+        <v>44379</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" ca="1" si="0"/>
-        <v>235</v>
+        <v>330</v>
       </c>
       <c r="B42">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>145</v>
       </c>
       <c r="C42" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44089</v>
+        <v>44354</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" ca="1" si="0"/>
-        <v>735</v>
+        <v>396</v>
       </c>
       <c r="B43">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>298</v>
       </c>
       <c r="C43" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44338</v>
+        <v>44267</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" ca="1" si="0"/>
-        <v>298</v>
+        <v>19</v>
       </c>
       <c r="B44">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>139</v>
       </c>
       <c r="C44" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44041</v>
+        <v>44479</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" ca="1" si="0"/>
-        <v>467</v>
+        <v>604</v>
       </c>
       <c r="B45">
         <f t="shared" ca="1" si="1"/>
-        <v>306</v>
+        <v>364</v>
       </c>
       <c r="C45" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44406</v>
+        <v>44150</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" ca="1" si="0"/>
-        <v>402</v>
+        <v>877</v>
       </c>
       <c r="B46">
         <f t="shared" ca="1" si="1"/>
-        <v>273</v>
+        <v>406</v>
       </c>
       <c r="C46" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44294</v>
+        <v>44150</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" ca="1" si="0"/>
-        <v>681</v>
+        <v>849</v>
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="1"/>
-        <v>263</v>
+        <v>442</v>
       </c>
       <c r="C47" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44113</v>
+        <v>44381</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" ca="1" si="0"/>
-        <v>257</v>
+        <v>552</v>
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="C48" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44405</v>
+        <v>44318</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" ca="1" si="0"/>
-        <v>258</v>
+        <v>614</v>
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>315</v>
       </c>
       <c r="C49" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44356</v>
+        <v>44223</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" ca="1" si="0"/>
-        <v>975</v>
+        <v>792</v>
       </c>
       <c r="B50">
         <f t="shared" ca="1" si="1"/>
-        <v>267</v>
+        <v>28</v>
       </c>
       <c r="C50" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44387</v>
+        <v>44089</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>136</v>
       </c>
       <c r="B51">
         <f t="shared" ca="1" si="1"/>
-        <v>351</v>
+        <v>408</v>
       </c>
       <c r="C51" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44248</v>
+        <v>44303</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" ca="1" si="0"/>
-        <v>629</v>
+        <v>704</v>
       </c>
       <c r="B52">
         <f t="shared" ca="1" si="1"/>
-        <v>233</v>
+        <v>444</v>
       </c>
       <c r="C52" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44166</v>
+        <v>44410</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" ca="1" si="0"/>
-        <v>513</v>
+        <v>87</v>
       </c>
       <c r="B53">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>169</v>
       </c>
       <c r="C53" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44486</v>
+        <v>44226</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" ca="1" si="0"/>
-        <v>984</v>
+        <v>688</v>
       </c>
       <c r="B54">
         <f t="shared" ca="1" si="1"/>
-        <v>258</v>
+        <v>79</v>
       </c>
       <c r="C54" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44410</v>
+        <v>44449</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" ca="1" si="0"/>
-        <v>448</v>
+        <v>327</v>
       </c>
       <c r="B55">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>284</v>
       </c>
       <c r="C55" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44177</v>
+        <v>44255</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" ca="1" si="0"/>
-        <v>291</v>
+        <v>977</v>
       </c>
       <c r="B56">
         <f t="shared" ca="1" si="1"/>
-        <v>482</v>
+        <v>426</v>
       </c>
       <c r="C56" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44091</v>
+        <v>44005</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" ca="1" si="0"/>
-        <v>277</v>
+        <v>603</v>
       </c>
       <c r="B57">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>318</v>
       </c>
       <c r="C57" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44107</v>
+        <v>44327</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" ca="1" si="0"/>
-        <v>562</v>
+        <v>721</v>
       </c>
       <c r="B58">
         <f t="shared" ca="1" si="1"/>
-        <v>388</v>
+        <v>66</v>
       </c>
       <c r="C58" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44221</v>
+        <v>44170</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <f t="shared" ca="1" si="0"/>
-        <v>913</v>
+        <v>34</v>
       </c>
       <c r="B59">
         <f t="shared" ca="1" si="1"/>
-        <v>385</v>
+        <v>237</v>
       </c>
       <c r="C59" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44284</v>
+        <v>44110</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <f t="shared" ca="1" si="0"/>
-        <v>844</v>
+        <v>638</v>
       </c>
       <c r="B60">
         <f t="shared" ca="1" si="1"/>
-        <v>440</v>
+        <v>192</v>
       </c>
       <c r="C60" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44058</v>
+        <v>44368</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" ca="1" si="0"/>
-        <v>552</v>
+        <v>460</v>
       </c>
       <c r="B61">
         <f t="shared" ca="1" si="1"/>
-        <v>271</v>
+        <v>10</v>
       </c>
       <c r="C61" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44199</v>
+        <v>44089</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <f t="shared" ca="1" si="0"/>
-        <v>973</v>
+        <v>573</v>
       </c>
       <c r="B62">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="C62" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44485</v>
+        <v>44114</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <f t="shared" ca="1" si="0"/>
-        <v>286</v>
+        <v>25</v>
       </c>
       <c r="B63">
         <f t="shared" ca="1" si="1"/>
-        <v>426</v>
+        <v>291</v>
       </c>
       <c r="C63" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44103</v>
+        <v>44462</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <f t="shared" ca="1" si="0"/>
-        <v>402</v>
+        <v>670</v>
       </c>
       <c r="B64">
         <f t="shared" ca="1" si="1"/>
-        <v>271</v>
+        <v>210</v>
       </c>
       <c r="C64" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44141</v>
+        <v>44072</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <f t="shared" ca="1" si="0"/>
-        <v>434</v>
+        <v>212</v>
       </c>
       <c r="B65">
         <f t="shared" ca="1" si="1"/>
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C65" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44329</v>
+        <v>44414</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <f t="shared" ca="1" si="0"/>
-        <v>711</v>
+        <v>44</v>
       </c>
       <c r="B66">
         <f t="shared" ca="1" si="1"/>
-        <v>400</v>
+        <v>82</v>
       </c>
       <c r="C66" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>44308</v>
+        <v>44122</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <f t="shared" ref="A67:A130" ca="1" si="3">RANDBETWEEN(1, 1000)</f>
-        <v>368</v>
+        <v>794</v>
       </c>
       <c r="B67">
         <f t="shared" ref="B67:B130" ca="1" si="4">RANDBETWEEN(1, 500)</f>
-        <v>105</v>
+        <v>416</v>
       </c>
       <c r="C67" s="1">
         <f t="shared" ref="C67:C130" ca="1" si="5">RANDBETWEEN(44000, 44500)</f>
-        <v>44062</v>
+        <v>44400</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <f t="shared" ca="1" si="3"/>
-        <v>355</v>
+        <v>869</v>
       </c>
       <c r="B68">
         <f t="shared" ca="1" si="4"/>
-        <v>114</v>
+        <v>373</v>
       </c>
       <c r="C68" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>44015</v>
+        <v>44173</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <f t="shared" ca="1" si="3"/>
-        <v>835</v>
+        <v>112</v>
       </c>
       <c r="B69">
         <f t="shared" ca="1" si="4"/>
-        <v>329</v>
+        <v>255</v>
       </c>
       <c r="C69" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>44328</v>
+        <v>44121</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <f t="shared" ca="1" si="3"/>
-        <v>875</v>
+        <v>420</v>
       </c>
       <c r="B70">
         <f t="shared" ca="1" si="4"/>
-        <v>149</v>
+        <v>328</v>
       </c>
       <c r="C70" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>44113</v>
+        <v>44049</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <f t="shared" ca="1" si="3"/>
-        <v>719</v>
+        <v>509</v>
       </c>
       <c r="B71">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="C71" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>44059</v>
+        <v>44326</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <f t="shared" ca="1" si="3"/>
-        <v>196</v>
+        <v>491</v>
       </c>
       <c r="B72">
         <f t="shared" ca="1" si="4"/>
-        <v>446</v>
+        <v>361</v>
       </c>
       <c r="C72" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>44009</v>
+        <v>44083</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <f t="shared" ca="1" si="3"/>
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="B73">
         <f t="shared" ca="1" si="4"/>
-        <v>307</v>
+        <v>415</v>
       </c>
       <c r="C73" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>44014</v>
+        <v>44233</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <f t="shared" ca="1" si="3"/>
-        <v>125</v>
+        <v>422</v>
       </c>
       <c r="B74">
         <f t="shared" ca="1" si="4"/>
-        <v>64</v>
+        <v>200</v>
       </c>
       <c r="C74" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>44370</v>
+        <v>44387</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <f t="shared" ca="1" si="3"/>
-        <v>980</v>
+        <v>821</v>
       </c>
       <c r="B75">
         <f t="shared" ca="1" si="4"/>
-        <v>472</v>
+        <v>264</v>
       </c>
       <c r="C75" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>44241</v>
+        <v>44078</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <f t="shared" ca="1" si="3"/>
-        <v>974</v>
+        <v>95</v>
       </c>
       <c r="B76">
         <f t="shared" ca="1" si="4"/>
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C76" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>44051</v>
+        <v>44367</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <f t="shared" ca="1" si="3"/>
-        <v>951</v>
+        <v>121</v>
       </c>
       <c r="B77">
         <f t="shared" ca="1" si="4"/>
-        <v>424</v>
+        <v>386</v>
       </c>
       <c r="C77" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>44280</v>
+        <v>44380</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <f t="shared" ca="1" si="3"/>
-        <v>657</v>
+        <v>475</v>
       </c>
       <c r="B78">
         <f t="shared" ca="1" si="4"/>
-        <v>339</v>
+        <v>458</v>
       </c>
       <c r="C78" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>44098</v>
+        <v>44235</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <f t="shared" ca="1" si="3"/>
-        <v>940</v>
+        <v>242</v>
       </c>
       <c r="B79">
         <f t="shared" ca="1" si="4"/>
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="C79" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>44289</v>
+        <v>44394</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <f t="shared" ca="1" si="3"/>
-        <v>932</v>
+        <v>878</v>
       </c>
       <c r="B80">
         <f t="shared" ca="1" si="4"/>
-        <v>186</v>
+        <v>302</v>
       </c>
       <c r="C80" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>44374</v>
+        <v>44351</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <f t="shared" ca="1" si="3"/>
-        <v>952</v>
+        <v>508</v>
       </c>
       <c r="B81">
         <f t="shared" ca="1" si="4"/>
-        <v>381</v>
+        <v>321</v>
       </c>
       <c r="C81" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>44117</v>
+        <v>44131</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <f t="shared" ca="1" si="3"/>
-        <v>792</v>
+        <v>57</v>
       </c>
       <c r="B82">
         <f t="shared" ca="1" si="4"/>
-        <v>444</v>
+        <v>425</v>
       </c>
       <c r="C82" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>44131</v>
+        <v>44122</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>527</v>
       </c>
       <c r="B83">
         <f t="shared" ca="1" si="4"/>
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="C83" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>44063</v>
+        <v>44429</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <f t="shared" ca="1" si="3"/>
-        <v>470</v>
+        <v>531</v>
       </c>
       <c r="B84">
         <f t="shared" ca="1" si="4"/>
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="C84" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>44229</v>
+        <v>44113</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <f t="shared" ca="1" si="3"/>
-        <v>473</v>
+        <v>114</v>
       </c>
       <c r="B85">
         <f t="shared" ca="1" si="4"/>
-        <v>334</v>
+        <v>473</v>
       </c>
       <c r="C85" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>44068</v>
+        <v>44124</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <f t="shared" ca="1" si="3"/>
-        <v>608</v>
+        <v>732</v>
       </c>
       <c r="B86">
         <f t="shared" ca="1" si="4"/>
-        <v>374</v>
+        <v>263</v>
       </c>
       <c r="C86" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>44158</v>
+        <v>44450</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <f t="shared" ca="1" si="3"/>
-        <v>183</v>
+        <v>988</v>
       </c>
       <c r="B87">
         <f t="shared" ca="1" si="4"/>
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="C87" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>44263</v>
+        <v>44121</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <f t="shared" ca="1" si="3"/>
-        <v>93</v>
+        <v>873</v>
       </c>
       <c r="B88">
         <f t="shared" ca="1" si="4"/>
-        <v>340</v>
+        <v>309</v>
       </c>
       <c r="C88" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>44024</v>
+        <v>44357</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <f t="shared" ca="1" si="3"/>
-        <v>545</v>
+        <v>777</v>
       </c>
       <c r="B89">
         <f t="shared" ca="1" si="4"/>
-        <v>352</v>
+        <v>243</v>
       </c>
       <c r="C89" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>44050</v>
+        <v>44159</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <f t="shared" ca="1" si="3"/>
-        <v>494</v>
+        <v>988</v>
       </c>
       <c r="B90">
         <f t="shared" ca="1" si="4"/>
-        <v>199</v>
+        <v>270</v>
       </c>
       <c r="C90" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>44369</v>
+        <v>44160</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <f t="shared" ca="1" si="3"/>
-        <v>281</v>
+        <v>567</v>
       </c>
       <c r="B91">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>300</v>
       </c>
       <c r="C91" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>44142</v>
+        <v>44063</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <f t="shared" ca="1" si="3"/>
-        <v>662</v>
+        <v>707</v>
       </c>
       <c r="B92">
         <f t="shared" ca="1" si="4"/>
-        <v>294</v>
+        <v>440</v>
       </c>
       <c r="C92" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>44326</v>
+        <v>44422</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <f t="shared" ca="1" si="3"/>
-        <v>413</v>
+        <v>701</v>
       </c>
       <c r="B93">
         <f t="shared" ca="1" si="4"/>
-        <v>410</v>
+        <v>461</v>
       </c>
       <c r="C93" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>44122</v>
+        <v>44438</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <f t="shared" ca="1" si="3"/>
-        <v>332</v>
+        <v>736</v>
       </c>
       <c r="B94">
         <f t="shared" ca="1" si="4"/>
-        <v>326</v>
+        <v>136</v>
       </c>
       <c r="C94" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>44163</v>
+        <v>44172</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <f t="shared" ca="1" si="3"/>
-        <v>357</v>
+        <v>803</v>
       </c>
       <c r="B95">
         <f t="shared" ca="1" si="4"/>
-        <v>359</v>
+        <v>202</v>
       </c>
       <c r="C95" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>44032</v>
+        <v>44020</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <f t="shared" ca="1" si="3"/>
-        <v>937</v>
+        <v>561</v>
       </c>
       <c r="B96">
         <f t="shared" ca="1" si="4"/>
-        <v>206</v>
+        <v>63</v>
       </c>
       <c r="C96" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>44138</v>
+        <v>44110</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <f t="shared" ca="1" si="3"/>
-        <v>494</v>
+        <v>423</v>
       </c>
       <c r="B97">
         <f t="shared" ca="1" si="4"/>
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="C97" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>44224</v>
+        <v>44367</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <f t="shared" ca="1" si="3"/>
-        <v>821</v>
+        <v>791</v>
       </c>
       <c r="B98">
         <f t="shared" ca="1" si="4"/>
-        <v>239</v>
+        <v>73</v>
       </c>
       <c r="C98" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>44204</v>
+        <v>44236</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <f t="shared" ca="1" si="3"/>
-        <v>93</v>
+        <v>407</v>
       </c>
       <c r="B99">
         <f t="shared" ca="1" si="4"/>
-        <v>17</v>
+        <v>387</v>
       </c>
       <c r="C99" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>44107</v>
+        <v>44317</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <f t="shared" ca="1" si="3"/>
-        <v>418</v>
+        <v>10</v>
       </c>
       <c r="B100">
         <f t="shared" ca="1" si="4"/>
-        <v>391</v>
+        <v>229</v>
       </c>
       <c r="C100" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>44462</v>
+        <v>44126</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <f t="shared" ca="1" si="3"/>
-        <v>984</v>
+        <v>807</v>
       </c>
       <c r="B101">
         <f t="shared" ca="1" si="4"/>
-        <v>62</v>
+        <v>445</v>
       </c>
       <c r="C101" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>44399</v>
+        <v>44171</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
         <f t="shared" ca="1" si="3"/>
-        <v>449</v>
+        <v>102</v>
       </c>
       <c r="B102">
         <f t="shared" ca="1" si="4"/>
-        <v>206</v>
+        <v>346</v>
       </c>
       <c r="C102" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>44307</v>
+        <v>44433</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
         <f t="shared" ca="1" si="3"/>
-        <v>223</v>
+        <v>892</v>
       </c>
       <c r="B103">
         <f t="shared" ca="1" si="4"/>
-        <v>420</v>
+        <v>226</v>
       </c>
       <c r="C103" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>44083</v>
+        <v>44256</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
         <f t="shared" ca="1" si="3"/>
-        <v>650</v>
+        <v>633</v>
       </c>
       <c r="B104">
         <f t="shared" ca="1" si="4"/>
-        <v>224</v>
+        <v>318</v>
       </c>
       <c r="C104" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>44358</v>
+        <v>44098</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
         <f t="shared" ca="1" si="3"/>
-        <v>979</v>
+        <v>968</v>
       </c>
       <c r="B105">
         <f t="shared" ca="1" si="4"/>
-        <v>197</v>
+        <v>118</v>
       </c>
       <c r="C105" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>44393</v>
+        <v>44321</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
         <f t="shared" ca="1" si="3"/>
-        <v>703</v>
+        <v>560</v>
       </c>
       <c r="B106">
         <f t="shared" ca="1" si="4"/>
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="C106" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>44377</v>
+        <v>44401</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
         <f t="shared" ca="1" si="3"/>
-        <v>513</v>
+        <v>598</v>
       </c>
       <c r="B107">
         <f t="shared" ca="1" si="4"/>
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="C107" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>44284</v>
+        <v>44296</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
         <f t="shared" ca="1" si="3"/>
-        <v>709</v>
+        <v>95</v>
       </c>
       <c r="B108">
         <f t="shared" ca="1" si="4"/>
-        <v>239</v>
+        <v>137</v>
       </c>
       <c r="C108" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>44077</v>
+        <v>44365</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
         <f t="shared" ca="1" si="3"/>
-        <v>445</v>
+        <v>307</v>
       </c>
       <c r="B109">
         <f t="shared" ca="1" si="4"/>
-        <v>176</v>
+        <v>423</v>
       </c>
       <c r="C109" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>44120</v>
+        <v>44291</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
         <f t="shared" ca="1" si="3"/>
-        <v>591</v>
+        <v>960</v>
       </c>
       <c r="B110">
         <f t="shared" ca="1" si="4"/>
-        <v>256</v>
+        <v>403</v>
       </c>
       <c r="C110" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>44387</v>
+        <v>44448</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
         <f t="shared" ca="1" si="3"/>
-        <v>844</v>
+        <v>716</v>
       </c>
       <c r="B111">
         <f t="shared" ca="1" si="4"/>
-        <v>291</v>
+        <v>34</v>
       </c>
       <c r="C111" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>44283</v>
+        <v>44010</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>742</v>
       </c>
       <c r="B112">
         <f t="shared" ca="1" si="4"/>
-        <v>490</v>
+        <v>141</v>
       </c>
       <c r="C112" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>44171</v>
+        <v>44444</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
         <f t="shared" ca="1" si="3"/>
-        <v>456</v>
+        <v>323</v>
       </c>
       <c r="B113">
         <f t="shared" ca="1" si="4"/>
-        <v>421</v>
+        <v>136</v>
       </c>
       <c r="C113" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>44457</v>
+        <v>44438</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
         <f t="shared" ca="1" si="3"/>
-        <v>643</v>
+        <v>231</v>
       </c>
       <c r="B114">
         <f t="shared" ca="1" si="4"/>
-        <v>202</v>
+        <v>8</v>
       </c>
       <c r="C114" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>44249</v>
+        <v>44083</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
         <f t="shared" ca="1" si="3"/>
-        <v>748</v>
+        <v>581</v>
       </c>
       <c r="B115">
         <f t="shared" ca="1" si="4"/>
-        <v>223</v>
+        <v>33</v>
       </c>
       <c r="C115" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>44124</v>
+        <v>44249</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
         <f t="shared" ca="1" si="3"/>
-        <v>34</v>
+        <v>617</v>
       </c>
       <c r="B116">
         <f t="shared" ca="1" si="4"/>
-        <v>190</v>
+        <v>471</v>
       </c>
       <c r="C116" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>44098</v>
+        <v>44232</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
         <f t="shared" ca="1" si="3"/>
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="B117">
         <f t="shared" ca="1" si="4"/>
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C117" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>44070</v>
+        <v>44102</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
         <f t="shared" ca="1" si="3"/>
-        <v>959</v>
+        <v>933</v>
       </c>
       <c r="B118">
         <f t="shared" ca="1" si="4"/>
-        <v>261</v>
+        <v>450</v>
       </c>
       <c r="C118" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>44341</v>
+        <v>44136</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
         <f t="shared" ca="1" si="3"/>
-        <v>919</v>
+        <v>814</v>
       </c>
       <c r="B119">
         <f t="shared" ca="1" si="4"/>
-        <v>464</v>
+        <v>14</v>
       </c>
       <c r="C119" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>44126</v>
+        <v>44102</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
         <f t="shared" ca="1" si="3"/>
-        <v>876</v>
+        <v>506</v>
       </c>
       <c r="B120">
         <f t="shared" ca="1" si="4"/>
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="C120" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>44360</v>
+        <v>44007</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
         <f t="shared" ca="1" si="3"/>
-        <v>54</v>
+        <v>484</v>
       </c>
       <c r="B121">
         <f t="shared" ca="1" si="4"/>
-        <v>51</v>
+        <v>324</v>
       </c>
       <c r="C121" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>44437</v>
+        <v>44077</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
         <f t="shared" ca="1" si="3"/>
-        <v>940</v>
+        <v>541</v>
       </c>
       <c r="B122">
         <f t="shared" ca="1" si="4"/>
-        <v>297</v>
+        <v>348</v>
       </c>
       <c r="C122" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>44361</v>
+        <v>44194</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
         <f t="shared" ca="1" si="3"/>
-        <v>428</v>
+        <v>636</v>
       </c>
       <c r="B123">
         <f t="shared" ca="1" si="4"/>
-        <v>300</v>
+        <v>258</v>
       </c>
       <c r="C123" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>44202</v>
+        <v>44108</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
         <f t="shared" ca="1" si="3"/>
-        <v>653</v>
+        <v>468</v>
       </c>
       <c r="B124">
         <f t="shared" ca="1" si="4"/>
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C124" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>44049</v>
+        <v>44276</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
         <f t="shared" ca="1" si="3"/>
-        <v>294</v>
+        <v>835</v>
       </c>
       <c r="B125">
         <f t="shared" ca="1" si="4"/>
-        <v>362</v>
+        <v>95</v>
       </c>
       <c r="C125" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>44255</v>
+        <v>44103</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
         <f t="shared" ca="1" si="3"/>
-        <v>708</v>
+        <v>404</v>
       </c>
       <c r="B126">
         <f t="shared" ca="1" si="4"/>
-        <v>146</v>
+        <v>224</v>
       </c>
       <c r="C126" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>44281</v>
+        <v>44187</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
         <f t="shared" ca="1" si="3"/>
-        <v>121</v>
+        <v>880</v>
       </c>
       <c r="B127">
         <f t="shared" ca="1" si="4"/>
-        <v>275</v>
+        <v>421</v>
       </c>
       <c r="C127" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>44353</v>
+        <v>44024</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
         <f t="shared" ca="1" si="3"/>
-        <v>951</v>
+        <v>481</v>
       </c>
       <c r="B128">
         <f t="shared" ca="1" si="4"/>
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C128" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>44273</v>
+        <v>44120</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
         <f t="shared" ca="1" si="3"/>
-        <v>267</v>
+        <v>829</v>
       </c>
       <c r="B129">
         <f t="shared" ca="1" si="4"/>
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="C129" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>44138</v>
+        <v>44086</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
         <f t="shared" ca="1" si="3"/>
-        <v>564</v>
+        <v>429</v>
       </c>
       <c r="B130">
         <f t="shared" ca="1" si="4"/>
-        <v>153</v>
+        <v>38</v>
       </c>
       <c r="C130" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>44011</v>
+        <v>44173</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
         <f t="shared" ref="A131:A194" ca="1" si="6">RANDBETWEEN(1, 1000)</f>
-        <v>440</v>
+        <v>461</v>
       </c>
       <c r="B131">
         <f t="shared" ref="B131:B194" ca="1" si="7">RANDBETWEEN(1, 500)</f>
-        <v>467</v>
+        <v>494</v>
       </c>
       <c r="C131" s="1">
         <f t="shared" ref="C131:C194" ca="1" si="8">RANDBETWEEN(44000, 44500)</f>
-        <v>44489</v>
+        <v>44122</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132">
         <f t="shared" ca="1" si="6"/>
-        <v>277</v>
+        <v>881</v>
       </c>
       <c r="B132">
         <f t="shared" ca="1" si="7"/>
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C132" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>44043</v>
+        <v>44200</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133">
         <f t="shared" ca="1" si="6"/>
-        <v>157</v>
+        <v>958</v>
       </c>
       <c r="B133">
         <f t="shared" ca="1" si="7"/>
-        <v>120</v>
+        <v>424</v>
       </c>
       <c r="C133" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>44404</v>
+        <v>44057</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134">
         <f t="shared" ca="1" si="6"/>
-        <v>676</v>
+        <v>461</v>
       </c>
       <c r="B134">
         <f t="shared" ca="1" si="7"/>
-        <v>192</v>
+        <v>28</v>
       </c>
       <c r="C134" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>44354</v>
+        <v>44202</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135">
         <f t="shared" ca="1" si="6"/>
-        <v>68</v>
+        <v>345</v>
       </c>
       <c r="B135">
         <f t="shared" ca="1" si="7"/>
-        <v>132</v>
+        <v>469</v>
       </c>
       <c r="C135" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>44346</v>
+        <v>44178</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136">
         <f t="shared" ca="1" si="6"/>
-        <v>867</v>
+        <v>345</v>
       </c>
       <c r="B136">
         <f t="shared" ca="1" si="7"/>
-        <v>154</v>
+        <v>52</v>
       </c>
       <c r="C136" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>44115</v>
+        <v>44035</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137">
         <f t="shared" ca="1" si="6"/>
-        <v>861</v>
+        <v>884</v>
       </c>
       <c r="B137">
         <f t="shared" ca="1" si="7"/>
-        <v>308</v>
+        <v>452</v>
       </c>
       <c r="C137" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>44384</v>
+        <v>44435</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138">
         <f t="shared" ca="1" si="6"/>
-        <v>520</v>
+        <v>787</v>
       </c>
       <c r="B138">
         <f t="shared" ca="1" si="7"/>
-        <v>386</v>
+        <v>189</v>
       </c>
       <c r="C138" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>44359</v>
+        <v>44381</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139">
         <f t="shared" ca="1" si="6"/>
-        <v>109</v>
+        <v>822</v>
       </c>
       <c r="B139">
         <f t="shared" ca="1" si="7"/>
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C139" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>44369</v>
+        <v>44398</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140">
         <f t="shared" ca="1" si="6"/>
-        <v>74</v>
+        <v>350</v>
       </c>
       <c r="B140">
         <f t="shared" ca="1" si="7"/>
-        <v>267</v>
+        <v>69</v>
       </c>
       <c r="C140" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>44022</v>
+        <v>44266</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141">
         <f t="shared" ca="1" si="6"/>
-        <v>157</v>
+        <v>265</v>
       </c>
       <c r="B141">
         <f t="shared" ca="1" si="7"/>
-        <v>263</v>
+        <v>160</v>
       </c>
       <c r="C141" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>44102</v>
+        <v>44275</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142">
         <f t="shared" ca="1" si="6"/>
-        <v>844</v>
+        <v>967</v>
       </c>
       <c r="B142">
         <f t="shared" ca="1" si="7"/>
-        <v>13</v>
+        <v>352</v>
       </c>
       <c r="C142" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>44302</v>
+        <v>44207</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143">
         <f t="shared" ca="1" si="6"/>
-        <v>242</v>
+        <v>935</v>
       </c>
       <c r="B143">
         <f t="shared" ca="1" si="7"/>
-        <v>408</v>
+        <v>488</v>
       </c>
       <c r="C143" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>44383</v>
+        <v>44288</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144">
         <f t="shared" ca="1" si="6"/>
-        <v>544</v>
+        <v>273</v>
       </c>
       <c r="B144">
         <f t="shared" ca="1" si="7"/>
-        <v>166</v>
+        <v>262</v>
       </c>
       <c r="C144" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>44366</v>
+        <v>44486</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145">
         <f t="shared" ca="1" si="6"/>
-        <v>871</v>
+        <v>18</v>
       </c>
       <c r="B145">
         <f t="shared" ca="1" si="7"/>
-        <v>288</v>
+        <v>83</v>
       </c>
       <c r="C145" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>44286</v>
+        <v>44487</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146">
         <f t="shared" ca="1" si="6"/>
-        <v>842</v>
+        <v>872</v>
       </c>
       <c r="B146">
         <f t="shared" ca="1" si="7"/>
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C146" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>44391</v>
+        <v>44338</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147">
         <f t="shared" ca="1" si="6"/>
-        <v>297</v>
+        <v>708</v>
       </c>
       <c r="B147">
         <f t="shared" ca="1" si="7"/>
-        <v>181</v>
+        <v>265</v>
       </c>
       <c r="C147" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>44454</v>
+        <v>44058</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148">
         <f t="shared" ca="1" si="6"/>
-        <v>748</v>
+        <v>416</v>
       </c>
       <c r="B148">
         <f t="shared" ca="1" si="7"/>
-        <v>154</v>
+        <v>96</v>
       </c>
       <c r="C148" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>44264</v>
+        <v>44165</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149">
         <f t="shared" ca="1" si="6"/>
-        <v>621</v>
+        <v>542</v>
       </c>
       <c r="B149">
         <f t="shared" ca="1" si="7"/>
-        <v>205</v>
+        <v>477</v>
       </c>
       <c r="C149" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>44181</v>
+        <v>44318</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150">
         <f t="shared" ca="1" si="6"/>
-        <v>236</v>
+        <v>619</v>
       </c>
       <c r="B150">
         <f t="shared" ca="1" si="7"/>
-        <v>331</v>
+        <v>257</v>
       </c>
       <c r="C150" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>44297</v>
+        <v>44144</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151">
         <f t="shared" ca="1" si="6"/>
-        <v>299</v>
+        <v>621</v>
       </c>
       <c r="B151">
         <f t="shared" ca="1" si="7"/>
-        <v>331</v>
+        <v>285</v>
       </c>
       <c r="C151" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>44116</v>
+        <v>44118</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152">
         <f t="shared" ca="1" si="6"/>
-        <v>738</v>
+        <v>513</v>
       </c>
       <c r="B152">
         <f t="shared" ca="1" si="7"/>
-        <v>377</v>
+        <v>323</v>
       </c>
       <c r="C152" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>44463</v>
+        <v>44427</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153">
         <f t="shared" ca="1" si="6"/>
-        <v>223</v>
+        <v>983</v>
       </c>
       <c r="B153">
         <f t="shared" ca="1" si="7"/>
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="C153" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>44038</v>
+        <v>44413</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154">
         <f t="shared" ca="1" si="6"/>
-        <v>425</v>
+        <v>62</v>
       </c>
       <c r="B154">
         <f t="shared" ca="1" si="7"/>
-        <v>289</v>
+        <v>28</v>
       </c>
       <c r="C154" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>44225</v>
+        <v>44221</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155">
         <f t="shared" ca="1" si="6"/>
-        <v>259</v>
+        <v>684</v>
       </c>
       <c r="B155">
         <f t="shared" ca="1" si="7"/>
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="C155" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>44243</v>
+        <v>44221</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156">
         <f t="shared" ca="1" si="6"/>
-        <v>553</v>
+        <v>691</v>
       </c>
       <c r="B156">
         <f t="shared" ca="1" si="7"/>
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="C156" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>44426</v>
+        <v>44022</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157">
         <f t="shared" ca="1" si="6"/>
-        <v>176</v>
+        <v>211</v>
       </c>
       <c r="B157">
         <f t="shared" ca="1" si="7"/>
-        <v>196</v>
+        <v>143</v>
       </c>
       <c r="C157" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>44471</v>
+        <v>44318</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158">
         <f t="shared" ca="1" si="6"/>
-        <v>380</v>
+        <v>473</v>
       </c>
       <c r="B158">
         <f t="shared" ca="1" si="7"/>
-        <v>454</v>
+        <v>201</v>
       </c>
       <c r="C158" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>44154</v>
+        <v>44297</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159">
         <f t="shared" ca="1" si="6"/>
-        <v>559</v>
+        <v>306</v>
       </c>
       <c r="B159">
         <f t="shared" ca="1" si="7"/>
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="C159" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>44274</v>
+        <v>44478</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160">
         <f t="shared" ca="1" si="6"/>
-        <v>693</v>
+        <v>363</v>
       </c>
       <c r="B160">
         <f t="shared" ca="1" si="7"/>
-        <v>216</v>
+        <v>41</v>
       </c>
       <c r="C160" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>44181</v>
+        <v>44114</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161">
         <f t="shared" ca="1" si="6"/>
-        <v>761</v>
+        <v>431</v>
       </c>
       <c r="B161">
         <f t="shared" ca="1" si="7"/>
-        <v>321</v>
+        <v>396</v>
       </c>
       <c r="C161" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>44208</v>
+        <v>44307</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162">
         <f t="shared" ca="1" si="6"/>
-        <v>501</v>
+        <v>157</v>
       </c>
       <c r="B162">
         <f t="shared" ca="1" si="7"/>
-        <v>332</v>
+        <v>279</v>
       </c>
       <c r="C162" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>44481</v>
+        <v>44300</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163">
         <f t="shared" ca="1" si="6"/>
-        <v>861</v>
+        <v>729</v>
       </c>
       <c r="B163">
         <f t="shared" ca="1" si="7"/>
-        <v>219</v>
+        <v>450</v>
       </c>
       <c r="C163" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>44069</v>
+        <v>44279</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164">
         <f t="shared" ca="1" si="6"/>
-        <v>73</v>
+        <v>702</v>
       </c>
       <c r="B164">
         <f t="shared" ca="1" si="7"/>
-        <v>172</v>
+        <v>457</v>
       </c>
       <c r="C164" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>44140</v>
+        <v>44125</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165">
         <f t="shared" ca="1" si="6"/>
-        <v>369</v>
+        <v>414</v>
       </c>
       <c r="B165">
         <f t="shared" ca="1" si="7"/>
-        <v>255</v>
+        <v>301</v>
       </c>
       <c r="C165" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>44293</v>
+        <v>44162</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166">
         <f t="shared" ca="1" si="6"/>
-        <v>466</v>
+        <v>271</v>
       </c>
       <c r="B166">
         <f t="shared" ca="1" si="7"/>
-        <v>158</v>
+        <v>208</v>
       </c>
       <c r="C166" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>44322</v>
+        <v>44389</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167">
         <f t="shared" ca="1" si="6"/>
-        <v>236</v>
+        <v>315</v>
       </c>
       <c r="B167">
         <f t="shared" ca="1" si="7"/>
-        <v>216</v>
+        <v>103</v>
       </c>
       <c r="C167" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>44169</v>
+        <v>44274</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168">
         <f t="shared" ca="1" si="6"/>
-        <v>489</v>
+        <v>191</v>
       </c>
       <c r="B168">
         <f t="shared" ca="1" si="7"/>
-        <v>110</v>
+        <v>294</v>
       </c>
       <c r="C168" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>44388</v>
+        <v>44487</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169">
         <f t="shared" ca="1" si="6"/>
-        <v>334</v>
+        <v>590</v>
       </c>
       <c r="B169">
         <f t="shared" ca="1" si="7"/>
-        <v>288</v>
+        <v>73</v>
       </c>
       <c r="C169" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>44035</v>
+        <v>44449</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170">
         <f t="shared" ca="1" si="6"/>
-        <v>712</v>
+        <v>320</v>
       </c>
       <c r="B170">
         <f t="shared" ca="1" si="7"/>
-        <v>368</v>
+        <v>493</v>
       </c>
       <c r="C170" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>44204</v>
+        <v>44139</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171">
         <f t="shared" ca="1" si="6"/>
-        <v>600</v>
+        <v>629</v>
       </c>
       <c r="B171">
         <f t="shared" ca="1" si="7"/>
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="C171" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>44276</v>
+        <v>44427</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172">
         <f t="shared" ca="1" si="6"/>
-        <v>923</v>
+        <v>472</v>
       </c>
       <c r="B172">
         <f t="shared" ca="1" si="7"/>
-        <v>64</v>
+        <v>417</v>
       </c>
       <c r="C172" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>44320</v>
+        <v>44403</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173">
         <f t="shared" ca="1" si="6"/>
-        <v>755</v>
+        <v>543</v>
       </c>
       <c r="B173">
         <f t="shared" ca="1" si="7"/>
-        <v>326</v>
+        <v>153</v>
       </c>
       <c r="C173" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>44368</v>
+        <v>44436</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174">
         <f t="shared" ca="1" si="6"/>
-        <v>518</v>
+        <v>61</v>
       </c>
       <c r="B174">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>435</v>
       </c>
       <c r="C174" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>44037</v>
+        <v>44011</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175">
         <f t="shared" ca="1" si="6"/>
-        <v>888</v>
+        <v>149</v>
       </c>
       <c r="B175">
         <f t="shared" ca="1" si="7"/>
-        <v>497</v>
+        <v>261</v>
       </c>
       <c r="C175" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>44380</v>
+        <v>44084</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176">
         <f t="shared" ca="1" si="6"/>
-        <v>447</v>
+        <v>39</v>
       </c>
       <c r="B176">
         <f t="shared" ca="1" si="7"/>
-        <v>288</v>
+        <v>156</v>
       </c>
       <c r="C176" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>44171</v>
+        <v>44358</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177">
         <f t="shared" ca="1" si="6"/>
-        <v>849</v>
+        <v>223</v>
       </c>
       <c r="B177">
         <f t="shared" ca="1" si="7"/>
-        <v>432</v>
+        <v>412</v>
       </c>
       <c r="C177" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>44115</v>
+        <v>44421</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178">
         <f t="shared" ca="1" si="6"/>
-        <v>199</v>
+        <v>486</v>
       </c>
       <c r="B178">
         <f t="shared" ca="1" si="7"/>
-        <v>297</v>
+        <v>461</v>
       </c>
       <c r="C178" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>44151</v>
+        <v>44403</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179">
         <f t="shared" ca="1" si="6"/>
-        <v>237</v>
+        <v>445</v>
       </c>
       <c r="B179">
         <f t="shared" ca="1" si="7"/>
-        <v>227</v>
+        <v>398</v>
       </c>
       <c r="C179" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>44427</v>
+        <v>44154</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180">
         <f t="shared" ca="1" si="6"/>
-        <v>405</v>
+        <v>157</v>
       </c>
       <c r="B180">
         <f t="shared" ca="1" si="7"/>
-        <v>312</v>
+        <v>410</v>
       </c>
       <c r="C180" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>44406</v>
+        <v>44474</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181">
         <f t="shared" ca="1" si="6"/>
-        <v>523</v>
+        <v>102</v>
       </c>
       <c r="B181">
         <f t="shared" ca="1" si="7"/>
-        <v>439</v>
+        <v>138</v>
       </c>
       <c r="C181" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>44265</v>
+        <v>44223</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182">
         <f t="shared" ca="1" si="6"/>
-        <v>808</v>
+        <v>705</v>
       </c>
       <c r="B182">
         <f t="shared" ca="1" si="7"/>
-        <v>363</v>
+        <v>317</v>
       </c>
       <c r="C182" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>44010</v>
+        <v>44330</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183">
         <f t="shared" ca="1" si="6"/>
-        <v>234</v>
+        <v>867</v>
       </c>
       <c r="B183">
         <f t="shared" ca="1" si="7"/>
-        <v>141</v>
+        <v>459</v>
       </c>
       <c r="C183" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>44237</v>
+        <v>44208</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184">
         <f t="shared" ca="1" si="6"/>
-        <v>443</v>
+        <v>52</v>
       </c>
       <c r="B184">
         <f t="shared" ca="1" si="7"/>
-        <v>95</v>
+        <v>264</v>
       </c>
       <c r="C184" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>44022</v>
+        <v>44201</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185">
         <f t="shared" ca="1" si="6"/>
-        <v>609</v>
+        <v>788</v>
       </c>
       <c r="B185">
         <f t="shared" ca="1" si="7"/>
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="C185" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>44477</v>
+        <v>44058</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186">
         <f t="shared" ca="1" si="6"/>
-        <v>322</v>
+        <v>298</v>
       </c>
       <c r="B186">
         <f t="shared" ca="1" si="7"/>
-        <v>361</v>
+        <v>474</v>
       </c>
       <c r="C186" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>44240</v>
+        <v>44217</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187">
         <f t="shared" ca="1" si="6"/>
-        <v>150</v>
+        <v>939</v>
       </c>
       <c r="B187">
         <f t="shared" ca="1" si="7"/>
-        <v>332</v>
+        <v>419</v>
       </c>
       <c r="C187" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>44246</v>
+        <v>44309</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188">
         <f t="shared" ca="1" si="6"/>
-        <v>250</v>
+        <v>282</v>
       </c>
       <c r="B188">
         <f t="shared" ca="1" si="7"/>
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="C188" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>44345</v>
+        <v>44496</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189">
         <f t="shared" ca="1" si="6"/>
-        <v>446</v>
+        <v>617</v>
       </c>
       <c r="B189">
         <f t="shared" ca="1" si="7"/>
-        <v>424</v>
+        <v>223</v>
       </c>
       <c r="C189" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>44240</v>
+        <v>44470</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190">
         <f t="shared" ca="1" si="6"/>
-        <v>109</v>
+        <v>596</v>
       </c>
       <c r="B190">
         <f t="shared" ca="1" si="7"/>
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C190" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>44371</v>
+        <v>44475</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191">
         <f t="shared" ca="1" si="6"/>
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B191">
         <f t="shared" ca="1" si="7"/>
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="C191" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>44385</v>
+        <v>44098</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192">
         <f t="shared" ca="1" si="6"/>
-        <v>48</v>
+        <v>711</v>
       </c>
       <c r="B192">
         <f t="shared" ca="1" si="7"/>
-        <v>299</v>
+        <v>244</v>
       </c>
       <c r="C192" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>44359</v>
+        <v>44442</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193">
         <f t="shared" ca="1" si="6"/>
-        <v>942</v>
+        <v>369</v>
       </c>
       <c r="B193">
         <f t="shared" ca="1" si="7"/>
-        <v>477</v>
+        <v>224</v>
       </c>
       <c r="C193" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>44231</v>
+        <v>44406</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194">
         <f t="shared" ca="1" si="6"/>
-        <v>732</v>
+        <v>253</v>
       </c>
       <c r="B194">
         <f t="shared" ca="1" si="7"/>
-        <v>183</v>
+        <v>488</v>
       </c>
       <c r="C194" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>44022</v>
+        <v>44286</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195">
         <f t="shared" ref="A195:A258" ca="1" si="9">RANDBETWEEN(1, 1000)</f>
-        <v>705</v>
+        <v>340</v>
       </c>
       <c r="B195">
         <f t="shared" ref="B195:B258" ca="1" si="10">RANDBETWEEN(1, 500)</f>
-        <v>306</v>
+        <v>264</v>
       </c>
       <c r="C195" s="1">
         <f t="shared" ref="C195:C258" ca="1" si="11">RANDBETWEEN(44000, 44500)</f>
-        <v>44101</v>
+        <v>44490</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196">
         <f t="shared" ca="1" si="9"/>
-        <v>740</v>
+        <v>298</v>
       </c>
       <c r="B196">
         <f t="shared" ca="1" si="10"/>
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C196" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>44031</v>
+        <v>44458</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197">
         <f t="shared" ca="1" si="9"/>
-        <v>773</v>
+        <v>407</v>
       </c>
       <c r="B197">
         <f t="shared" ca="1" si="10"/>
-        <v>254</v>
+        <v>190</v>
       </c>
       <c r="C197" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>44119</v>
+        <v>44022</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198">
         <f t="shared" ca="1" si="9"/>
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B198">
         <f t="shared" ca="1" si="10"/>
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C198" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>44060</v>
+        <v>44069</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199">
         <f t="shared" ca="1" si="9"/>
-        <v>364</v>
+        <v>147</v>
       </c>
       <c r="B199">
         <f t="shared" ca="1" si="10"/>
-        <v>401</v>
+        <v>347</v>
       </c>
       <c r="C199" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>44097</v>
+        <v>44383</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200">
         <f t="shared" ca="1" si="9"/>
-        <v>375</v>
+        <v>911</v>
       </c>
       <c r="B200">
         <f t="shared" ca="1" si="10"/>
-        <v>130</v>
+        <v>217</v>
       </c>
       <c r="C200" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>44474</v>
+        <v>44473</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201">
         <f t="shared" ca="1" si="9"/>
-        <v>428</v>
+        <v>805</v>
       </c>
       <c r="B201">
         <f t="shared" ca="1" si="10"/>
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="C201" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>44390</v>
+        <v>44448</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202">
         <f t="shared" ca="1" si="9"/>
-        <v>163</v>
+        <v>220</v>
       </c>
       <c r="B202">
         <f t="shared" ca="1" si="10"/>
-        <v>148</v>
+        <v>3</v>
       </c>
       <c r="C202" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>44451</v>
+        <v>44048</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203">
         <f t="shared" ca="1" si="9"/>
-        <v>787</v>
+        <v>216</v>
       </c>
       <c r="B203">
         <f t="shared" ca="1" si="10"/>
-        <v>176</v>
+        <v>61</v>
       </c>
       <c r="C203" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>44166</v>
+        <v>44352</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204">
         <f t="shared" ca="1" si="9"/>
-        <v>944</v>
+        <v>181</v>
       </c>
       <c r="B204">
         <f t="shared" ca="1" si="10"/>
-        <v>272</v>
+        <v>136</v>
       </c>
       <c r="C204" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>44486</v>
+        <v>44440</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205">
         <f t="shared" ca="1" si="9"/>
-        <v>856</v>
+        <v>411</v>
       </c>
       <c r="B205">
         <f t="shared" ca="1" si="10"/>
-        <v>425</v>
+        <v>88</v>
       </c>
       <c r="C205" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>44001</v>
+        <v>44294</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206">
         <f t="shared" ca="1" si="9"/>
-        <v>887</v>
+        <v>6</v>
       </c>
       <c r="B206">
         <f t="shared" ca="1" si="10"/>
-        <v>4</v>
+        <v>482</v>
       </c>
       <c r="C206" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>44455</v>
+        <v>44189</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207">
         <f t="shared" ca="1" si="9"/>
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="B207">
         <f t="shared" ca="1" si="10"/>
-        <v>189</v>
+        <v>281</v>
       </c>
       <c r="C207" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>44377</v>
+        <v>44258</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208">
         <f t="shared" ca="1" si="9"/>
-        <v>152</v>
+        <v>456</v>
       </c>
       <c r="B208">
         <f t="shared" ca="1" si="10"/>
-        <v>266</v>
+        <v>343</v>
       </c>
       <c r="C208" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>44226</v>
+        <v>44232</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209">
         <f t="shared" ca="1" si="9"/>
-        <v>815</v>
+        <v>781</v>
       </c>
       <c r="B209">
         <f t="shared" ca="1" si="10"/>
-        <v>68</v>
+        <v>190</v>
       </c>
       <c r="C209" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>44337</v>
+        <v>44329</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210">
         <f t="shared" ca="1" si="9"/>
-        <v>412</v>
+        <v>796</v>
       </c>
       <c r="B210">
         <f t="shared" ca="1" si="10"/>
-        <v>325</v>
+        <v>143</v>
       </c>
       <c r="C210" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>44234</v>
+        <v>44128</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211">
         <f t="shared" ca="1" si="9"/>
-        <v>986</v>
+        <v>594</v>
       </c>
       <c r="B211">
         <f t="shared" ca="1" si="10"/>
-        <v>354</v>
+        <v>159</v>
       </c>
       <c r="C211" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>44140</v>
+        <v>44241</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212">
         <f t="shared" ca="1" si="9"/>
-        <v>519</v>
+        <v>45</v>
       </c>
       <c r="B212">
         <f t="shared" ca="1" si="10"/>
-        <v>257</v>
+        <v>39</v>
       </c>
       <c r="C212" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>44058</v>
+        <v>44179</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213">
         <f t="shared" ca="1" si="9"/>
-        <v>606</v>
+        <v>578</v>
       </c>
       <c r="B213">
         <f t="shared" ca="1" si="10"/>
-        <v>86</v>
+        <v>230</v>
       </c>
       <c r="C213" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>44309</v>
+        <v>44231</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214">
         <f t="shared" ca="1" si="9"/>
-        <v>734</v>
+        <v>563</v>
       </c>
       <c r="B214">
         <f t="shared" ca="1" si="10"/>
-        <v>234</v>
+        <v>271</v>
       </c>
       <c r="C214" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>44011</v>
+        <v>44062</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215">
         <f t="shared" ca="1" si="9"/>
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="B215">
         <f t="shared" ca="1" si="10"/>
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="C215" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>44011</v>
+        <v>44112</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216">
         <f t="shared" ca="1" si="9"/>
-        <v>610</v>
+        <v>422</v>
       </c>
       <c r="B216">
         <f t="shared" ca="1" si="10"/>
-        <v>43</v>
+        <v>136</v>
       </c>
       <c r="C216" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>44143</v>
+        <v>44029</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217">
         <f t="shared" ca="1" si="9"/>
-        <v>471</v>
+        <v>511</v>
       </c>
       <c r="B217">
         <f t="shared" ca="1" si="10"/>
-        <v>49</v>
+        <v>382</v>
       </c>
       <c r="C217" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>44247</v>
+        <v>44454</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218">
         <f t="shared" ca="1" si="9"/>
-        <v>68</v>
+        <v>555</v>
       </c>
       <c r="B218">
         <f t="shared" ca="1" si="10"/>
-        <v>198</v>
+        <v>447</v>
       </c>
       <c r="C218" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>44021</v>
+        <v>44047</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219">
         <f t="shared" ca="1" si="9"/>
-        <v>8</v>
+        <v>631</v>
       </c>
       <c r="B219">
         <f t="shared" ca="1" si="10"/>
-        <v>118</v>
+        <v>298</v>
       </c>
       <c r="C219" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>44182</v>
+        <v>44072</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220">
         <f t="shared" ca="1" si="9"/>
-        <v>587</v>
+        <v>401</v>
       </c>
       <c r="B220">
         <f t="shared" ca="1" si="10"/>
-        <v>37</v>
+        <v>412</v>
       </c>
       <c r="C220" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>44274</v>
+        <v>44286</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221">
         <f t="shared" ca="1" si="9"/>
-        <v>274</v>
+        <v>688</v>
       </c>
       <c r="B221">
         <f t="shared" ca="1" si="10"/>
-        <v>177</v>
+        <v>48</v>
       </c>
       <c r="C221" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>44281</v>
+        <v>44090</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222">
         <f t="shared" ca="1" si="9"/>
-        <v>444</v>
+        <v>10</v>
       </c>
       <c r="B222">
         <f t="shared" ca="1" si="10"/>
-        <v>158</v>
+        <v>82</v>
       </c>
       <c r="C222" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>44245</v>
+        <v>44174</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223">
         <f t="shared" ca="1" si="9"/>
-        <v>183</v>
+        <v>942</v>
       </c>
       <c r="B223">
         <f t="shared" ca="1" si="10"/>
-        <v>458</v>
+        <v>66</v>
       </c>
       <c r="C223" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>44334</v>
+        <v>44470</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224">
         <f t="shared" ca="1" si="9"/>
-        <v>500</v>
+        <v>645</v>
       </c>
       <c r="B224">
         <f t="shared" ca="1" si="10"/>
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="C224" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>44065</v>
+        <v>44073</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225">
         <f t="shared" ca="1" si="9"/>
-        <v>159</v>
+        <v>67</v>
       </c>
       <c r="B225">
         <f t="shared" ca="1" si="10"/>
-        <v>206</v>
+        <v>335</v>
       </c>
       <c r="C225" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>44128</v>
+        <v>44035</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226">
         <f t="shared" ca="1" si="9"/>
-        <v>585</v>
+        <v>299</v>
       </c>
       <c r="B226">
         <f t="shared" ca="1" si="10"/>
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="C226" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>44216</v>
+        <v>44020</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227">
         <f t="shared" ca="1" si="9"/>
-        <v>619</v>
+        <v>129</v>
       </c>
       <c r="B227">
         <f t="shared" ca="1" si="10"/>
-        <v>218</v>
+        <v>75</v>
       </c>
       <c r="C227" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>44054</v>
+        <v>44499</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228">
         <f t="shared" ca="1" si="9"/>
-        <v>891</v>
+        <v>427</v>
       </c>
       <c r="B228">
         <f t="shared" ca="1" si="10"/>
-        <v>317</v>
+        <v>429</v>
       </c>
       <c r="C228" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>44061</v>
+        <v>44141</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229">
         <f t="shared" ca="1" si="9"/>
-        <v>416</v>
+        <v>494</v>
       </c>
       <c r="B229">
         <f t="shared" ca="1" si="10"/>
-        <v>226</v>
+        <v>82</v>
       </c>
       <c r="C229" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>44349</v>
+        <v>44124</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230">
         <f t="shared" ca="1" si="9"/>
-        <v>252</v>
+        <v>224</v>
       </c>
       <c r="B230">
         <f t="shared" ca="1" si="10"/>
-        <v>38</v>
+        <v>382</v>
       </c>
       <c r="C230" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>44441</v>
+        <v>44349</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231">
         <f t="shared" ca="1" si="9"/>
-        <v>853</v>
+        <v>440</v>
       </c>
       <c r="B231">
         <f t="shared" ca="1" si="10"/>
-        <v>307</v>
+        <v>76</v>
       </c>
       <c r="C231" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>44124</v>
+        <v>44194</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232">
         <f t="shared" ca="1" si="9"/>
-        <v>189</v>
+        <v>908</v>
       </c>
       <c r="B232">
         <f t="shared" ca="1" si="10"/>
-        <v>114</v>
+        <v>43</v>
       </c>
       <c r="C232" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>44138</v>
+        <v>44003</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233">
         <f t="shared" ca="1" si="9"/>
-        <v>548</v>
+        <v>840</v>
       </c>
       <c r="B233">
         <f t="shared" ca="1" si="10"/>
-        <v>280</v>
+        <v>466</v>
       </c>
       <c r="C233" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>44113</v>
+        <v>44037</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234">
         <f t="shared" ca="1" si="9"/>
-        <v>55</v>
+        <v>157</v>
       </c>
       <c r="B234">
         <f t="shared" ca="1" si="10"/>
-        <v>397</v>
+        <v>416</v>
       </c>
       <c r="C234" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>44450</v>
+        <v>44066</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235">
         <f t="shared" ca="1" si="9"/>
-        <v>974</v>
+        <v>811</v>
       </c>
       <c r="B235">
         <f t="shared" ca="1" si="10"/>
-        <v>375</v>
+        <v>248</v>
       </c>
       <c r="C235" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>44434</v>
+        <v>44487</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236">
         <f t="shared" ca="1" si="9"/>
-        <v>460</v>
+        <v>525</v>
       </c>
       <c r="B236">
         <f t="shared" ca="1" si="10"/>
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="C236" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>44475</v>
+        <v>44256</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237">
         <f t="shared" ca="1" si="9"/>
-        <v>575</v>
+        <v>743</v>
       </c>
       <c r="B237">
         <f t="shared" ca="1" si="10"/>
-        <v>204</v>
+        <v>100</v>
       </c>
       <c r="C237" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>44024</v>
+        <v>44400</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238">
         <f t="shared" ca="1" si="9"/>
-        <v>827</v>
+        <v>396</v>
       </c>
       <c r="B238">
         <f t="shared" ca="1" si="10"/>
-        <v>293</v>
+        <v>365</v>
       </c>
       <c r="C238" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>44172</v>
+        <v>44009</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239">
         <f t="shared" ca="1" si="9"/>
-        <v>69</v>
+        <v>779</v>
       </c>
       <c r="B239">
         <f t="shared" ca="1" si="10"/>
-        <v>15</v>
+        <v>149</v>
       </c>
       <c r="C239" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>44422</v>
+        <v>44374</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240">
         <f t="shared" ca="1" si="9"/>
-        <v>502</v>
+        <v>701</v>
       </c>
       <c r="B240">
         <f t="shared" ca="1" si="10"/>
-        <v>190</v>
+        <v>122</v>
       </c>
       <c r="C240" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>44210</v>
+        <v>44243</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241">
         <f t="shared" ca="1" si="9"/>
-        <v>499</v>
+        <v>120</v>
       </c>
       <c r="B241">
         <f t="shared" ca="1" si="10"/>
-        <v>128</v>
+        <v>235</v>
       </c>
       <c r="C241" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>44289</v>
+        <v>44471</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242">
         <f t="shared" ca="1" si="9"/>
-        <v>867</v>
+        <v>385</v>
       </c>
       <c r="B242">
         <f t="shared" ca="1" si="10"/>
-        <v>462</v>
+        <v>419</v>
       </c>
       <c r="C242" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>44432</v>
+        <v>44051</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243">
         <f t="shared" ca="1" si="9"/>
-        <v>837</v>
+        <v>138</v>
       </c>
       <c r="B243">
         <f t="shared" ca="1" si="10"/>
-        <v>13</v>
+        <v>466</v>
       </c>
       <c r="C243" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>44226</v>
+        <v>44274</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244">
         <f t="shared" ca="1" si="9"/>
-        <v>831</v>
+        <v>936</v>
       </c>
       <c r="B244">
         <f t="shared" ca="1" si="10"/>
-        <v>52</v>
+        <v>225</v>
       </c>
       <c r="C244" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>44189</v>
+        <v>44077</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245">
         <f t="shared" ca="1" si="9"/>
-        <v>849</v>
+        <v>438</v>
       </c>
       <c r="B245">
         <f t="shared" ca="1" si="10"/>
-        <v>43</v>
+        <v>264</v>
       </c>
       <c r="C245" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>44225</v>
+        <v>44283</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246">
         <f t="shared" ca="1" si="9"/>
-        <v>600</v>
+        <v>490</v>
       </c>
       <c r="B246">
         <f t="shared" ca="1" si="10"/>
-        <v>92</v>
+        <v>279</v>
       </c>
       <c r="C246" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>44017</v>
+        <v>44489</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247">
         <f t="shared" ca="1" si="9"/>
-        <v>595</v>
+        <v>998</v>
       </c>
       <c r="B247">
         <f t="shared" ca="1" si="10"/>
-        <v>426</v>
+        <v>448</v>
       </c>
       <c r="C247" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>44044</v>
+        <v>44120</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248">
         <f t="shared" ca="1" si="9"/>
-        <v>922</v>
+        <v>343</v>
       </c>
       <c r="B248">
         <f t="shared" ca="1" si="10"/>
-        <v>193</v>
+        <v>291</v>
       </c>
       <c r="C248" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>44280</v>
+        <v>44333</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249">
         <f t="shared" ca="1" si="9"/>
-        <v>436</v>
+        <v>594</v>
       </c>
       <c r="B249">
         <f t="shared" ca="1" si="10"/>
-        <v>384</v>
+        <v>292</v>
       </c>
       <c r="C249" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>44260</v>
+        <v>44162</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250">
         <f t="shared" ca="1" si="9"/>
-        <v>885</v>
+        <v>535</v>
       </c>
       <c r="B250">
         <f t="shared" ca="1" si="10"/>
-        <v>440</v>
+        <v>78</v>
       </c>
       <c r="C250" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>44014</v>
+        <v>44113</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251">
         <f t="shared" ca="1" si="9"/>
-        <v>598</v>
+        <v>549</v>
       </c>
       <c r="B251">
         <f t="shared" ca="1" si="10"/>
-        <v>476</v>
+        <v>299</v>
       </c>
       <c r="C251" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>44134</v>
+        <v>44009</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252">
         <f t="shared" ca="1" si="9"/>
-        <v>653</v>
+        <v>724</v>
       </c>
       <c r="B252">
         <f t="shared" ca="1" si="10"/>
-        <v>326</v>
+        <v>3</v>
       </c>
       <c r="C252" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>44199</v>
+        <v>44309</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253">
         <f t="shared" ca="1" si="9"/>
-        <v>570</v>
+        <v>353</v>
       </c>
       <c r="B253">
         <f t="shared" ca="1" si="10"/>
-        <v>302</v>
+        <v>236</v>
       </c>
       <c r="C253" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>44025</v>
+        <v>44139</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254">
         <f t="shared" ca="1" si="9"/>
-        <v>634</v>
+        <v>554</v>
       </c>
       <c r="B254">
         <f t="shared" ca="1" si="10"/>
-        <v>26</v>
+        <v>340</v>
       </c>
       <c r="C254" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>44133</v>
+        <v>44354</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255">
         <f t="shared" ca="1" si="9"/>
-        <v>974</v>
+        <v>100</v>
       </c>
       <c r="B255">
         <f t="shared" ca="1" si="10"/>
-        <v>124</v>
+        <v>1</v>
       </c>
       <c r="C255" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>44261</v>
+        <v>44289</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256">
         <f t="shared" ca="1" si="9"/>
-        <v>847</v>
+        <v>904</v>
       </c>
       <c r="B256">
         <f t="shared" ca="1" si="10"/>
-        <v>212</v>
+        <v>155</v>
       </c>
       <c r="C256" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>44197</v>
+        <v>44021</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257">
         <f t="shared" ca="1" si="9"/>
-        <v>921</v>
+        <v>736</v>
       </c>
       <c r="B257">
         <f t="shared" ca="1" si="10"/>
-        <v>253</v>
+        <v>142</v>
       </c>
       <c r="C257" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>44280</v>
+        <v>44407</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258">
         <f t="shared" ca="1" si="9"/>
-        <v>330</v>
+        <v>62</v>
       </c>
       <c r="B258">
         <f t="shared" ca="1" si="10"/>
-        <v>281</v>
+        <v>130</v>
       </c>
       <c r="C258" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>44385</v>
+        <v>44205</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259">
         <f t="shared" ref="A259:A300" ca="1" si="12">RANDBETWEEN(1, 1000)</f>
-        <v>172</v>
+        <v>327</v>
       </c>
       <c r="B259">
         <f t="shared" ref="B259:B300" ca="1" si="13">RANDBETWEEN(1, 500)</f>
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C259" s="1">
         <f t="shared" ref="C259:C300" ca="1" si="14">RANDBETWEEN(44000, 44500)</f>
-        <v>44274</v>
+        <v>44449</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
@@ -13579,571 +13579,571 @@
       </c>
       <c r="B260">
         <f t="shared" ca="1" si="13"/>
-        <v>142</v>
+        <v>39</v>
       </c>
       <c r="C260" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>44235</v>
+        <v>44031</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261">
         <f t="shared" ca="1" si="12"/>
-        <v>849</v>
+        <v>586</v>
       </c>
       <c r="B261">
         <f t="shared" ca="1" si="13"/>
-        <v>33</v>
+        <v>298</v>
       </c>
       <c r="C261" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>44194</v>
+        <v>44139</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262">
         <f t="shared" ca="1" si="12"/>
-        <v>250</v>
+        <v>663</v>
       </c>
       <c r="B262">
         <f t="shared" ca="1" si="13"/>
-        <v>353</v>
+        <v>192</v>
       </c>
       <c r="C262" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>44162</v>
+        <v>44076</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263">
         <f t="shared" ca="1" si="12"/>
-        <v>23</v>
+        <v>197</v>
       </c>
       <c r="B263">
         <f t="shared" ca="1" si="13"/>
-        <v>373</v>
+        <v>405</v>
       </c>
       <c r="C263" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>44016</v>
+        <v>44044</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264">
         <f t="shared" ca="1" si="12"/>
-        <v>727</v>
+        <v>98</v>
       </c>
       <c r="B264">
         <f t="shared" ca="1" si="13"/>
-        <v>50</v>
+        <v>267</v>
       </c>
       <c r="C264" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>44018</v>
+        <v>44073</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265">
         <f t="shared" ca="1" si="12"/>
-        <v>24</v>
+        <v>657</v>
       </c>
       <c r="B265">
         <f t="shared" ca="1" si="13"/>
-        <v>102</v>
+        <v>419</v>
       </c>
       <c r="C265" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>44416</v>
+        <v>44464</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266">
         <f t="shared" ca="1" si="12"/>
-        <v>510</v>
+        <v>742</v>
       </c>
       <c r="B266">
         <f t="shared" ca="1" si="13"/>
-        <v>279</v>
+        <v>27</v>
       </c>
       <c r="C266" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>44307</v>
+        <v>44202</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267">
         <f t="shared" ca="1" si="12"/>
-        <v>576</v>
+        <v>992</v>
       </c>
       <c r="B267">
         <f t="shared" ca="1" si="13"/>
-        <v>295</v>
+        <v>188</v>
       </c>
       <c r="C267" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>44280</v>
+        <v>44014</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268">
         <f t="shared" ca="1" si="12"/>
-        <v>733</v>
+        <v>764</v>
       </c>
       <c r="B268">
         <f t="shared" ca="1" si="13"/>
-        <v>427</v>
+        <v>466</v>
       </c>
       <c r="C268" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>44077</v>
+        <v>44469</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269">
         <f t="shared" ca="1" si="12"/>
-        <v>660</v>
+        <v>115</v>
       </c>
       <c r="B269">
         <f t="shared" ca="1" si="13"/>
-        <v>295</v>
+        <v>432</v>
       </c>
       <c r="C269" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>44330</v>
+        <v>44498</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270">
         <f t="shared" ca="1" si="12"/>
-        <v>493</v>
+        <v>20</v>
       </c>
       <c r="B270">
         <f t="shared" ca="1" si="13"/>
-        <v>263</v>
+        <v>87</v>
       </c>
       <c r="C270" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>44426</v>
+        <v>44384</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271">
         <f t="shared" ca="1" si="12"/>
-        <v>909</v>
+        <v>742</v>
       </c>
       <c r="B271">
         <f t="shared" ca="1" si="13"/>
-        <v>287</v>
+        <v>124</v>
       </c>
       <c r="C271" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>44474</v>
+        <v>44072</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272">
         <f t="shared" ca="1" si="12"/>
-        <v>685</v>
+        <v>892</v>
       </c>
       <c r="B272">
         <f t="shared" ca="1" si="13"/>
-        <v>481</v>
+        <v>466</v>
       </c>
       <c r="C272" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>44053</v>
+        <v>44340</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273">
         <f t="shared" ca="1" si="12"/>
-        <v>74</v>
+        <v>720</v>
       </c>
       <c r="B273">
         <f t="shared" ca="1" si="13"/>
-        <v>356</v>
+        <v>241</v>
       </c>
       <c r="C273" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>44358</v>
+        <v>44144</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274">
         <f t="shared" ca="1" si="12"/>
-        <v>567</v>
+        <v>33</v>
       </c>
       <c r="B274">
         <f t="shared" ca="1" si="13"/>
-        <v>368</v>
+        <v>153</v>
       </c>
       <c r="C274" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>44409</v>
+        <v>44499</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275">
         <f t="shared" ca="1" si="12"/>
-        <v>666</v>
+        <v>947</v>
       </c>
       <c r="B275">
         <f t="shared" ca="1" si="13"/>
-        <v>90</v>
+        <v>349</v>
       </c>
       <c r="C275" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>44197</v>
+        <v>44398</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276">
         <f t="shared" ca="1" si="12"/>
-        <v>242</v>
+        <v>329</v>
       </c>
       <c r="B276">
         <f t="shared" ca="1" si="13"/>
-        <v>80</v>
+        <v>398</v>
       </c>
       <c r="C276" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>44455</v>
+        <v>44423</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277">
         <f t="shared" ca="1" si="12"/>
-        <v>96</v>
+        <v>875</v>
       </c>
       <c r="B277">
         <f t="shared" ca="1" si="13"/>
-        <v>406</v>
+        <v>162</v>
       </c>
       <c r="C277" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>44323</v>
+        <v>44092</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278">
         <f t="shared" ca="1" si="12"/>
-        <v>577</v>
+        <v>29</v>
       </c>
       <c r="B278">
         <f t="shared" ca="1" si="13"/>
-        <v>464</v>
+        <v>29</v>
       </c>
       <c r="C278" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>44124</v>
+        <v>44216</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279">
         <f t="shared" ca="1" si="12"/>
-        <v>433</v>
+        <v>575</v>
       </c>
       <c r="B279">
         <f t="shared" ca="1" si="13"/>
-        <v>302</v>
+        <v>400</v>
       </c>
       <c r="C279" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>44495</v>
+        <v>44432</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280">
         <f t="shared" ca="1" si="12"/>
-        <v>787</v>
+        <v>277</v>
       </c>
       <c r="B280">
         <f t="shared" ca="1" si="13"/>
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="C280" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>44113</v>
+        <v>44084</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281">
         <f t="shared" ca="1" si="12"/>
-        <v>130</v>
+        <v>574</v>
       </c>
       <c r="B281">
         <f t="shared" ca="1" si="13"/>
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="C281" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>44464</v>
+        <v>44453</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282">
         <f t="shared" ca="1" si="12"/>
-        <v>840</v>
+        <v>319</v>
       </c>
       <c r="B282">
         <f t="shared" ca="1" si="13"/>
-        <v>386</v>
+        <v>60</v>
       </c>
       <c r="C282" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>44401</v>
+        <v>44275</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283">
         <f t="shared" ca="1" si="12"/>
-        <v>109</v>
+        <v>389</v>
       </c>
       <c r="B283">
         <f t="shared" ca="1" si="13"/>
-        <v>328</v>
+        <v>79</v>
       </c>
       <c r="C283" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>44274</v>
+        <v>44413</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284">
         <f t="shared" ca="1" si="12"/>
-        <v>722</v>
+        <v>448</v>
       </c>
       <c r="B284">
         <f t="shared" ca="1" si="13"/>
-        <v>323</v>
+        <v>298</v>
       </c>
       <c r="C284" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>44421</v>
+        <v>44154</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285">
         <f t="shared" ca="1" si="12"/>
-        <v>344</v>
+        <v>297</v>
       </c>
       <c r="B285">
         <f t="shared" ca="1" si="13"/>
-        <v>436</v>
+        <v>88</v>
       </c>
       <c r="C285" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>44455</v>
+        <v>44258</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286">
         <f t="shared" ca="1" si="12"/>
-        <v>496</v>
+        <v>163</v>
       </c>
       <c r="B286">
         <f t="shared" ca="1" si="13"/>
-        <v>492</v>
+        <v>295</v>
       </c>
       <c r="C286" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>44231</v>
+        <v>44146</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287">
         <f t="shared" ca="1" si="12"/>
-        <v>119</v>
+        <v>344</v>
       </c>
       <c r="B287">
         <f t="shared" ca="1" si="13"/>
-        <v>462</v>
+        <v>438</v>
       </c>
       <c r="C287" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>44201</v>
+        <v>44462</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288">
         <f t="shared" ca="1" si="12"/>
-        <v>461</v>
+        <v>491</v>
       </c>
       <c r="B288">
         <f t="shared" ca="1" si="13"/>
-        <v>280</v>
+        <v>421</v>
       </c>
       <c r="C288" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>44127</v>
+        <v>44092</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289">
         <f t="shared" ca="1" si="12"/>
-        <v>755</v>
+        <v>374</v>
       </c>
       <c r="B289">
         <f t="shared" ca="1" si="13"/>
-        <v>312</v>
+        <v>19</v>
       </c>
       <c r="C289" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>44107</v>
+        <v>44101</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290">
         <f t="shared" ca="1" si="12"/>
-        <v>578</v>
+        <v>340</v>
       </c>
       <c r="B290">
         <f t="shared" ca="1" si="13"/>
-        <v>27</v>
+        <v>423</v>
       </c>
       <c r="C290" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>44421</v>
+        <v>44285</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291">
         <f t="shared" ca="1" si="12"/>
-        <v>842</v>
+        <v>345</v>
       </c>
       <c r="B291">
         <f t="shared" ca="1" si="13"/>
-        <v>231</v>
+        <v>450</v>
       </c>
       <c r="C291" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>44415</v>
+        <v>44456</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292">
         <f t="shared" ca="1" si="12"/>
-        <v>690</v>
+        <v>729</v>
       </c>
       <c r="B292">
         <f t="shared" ca="1" si="13"/>
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="C292" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>44437</v>
+        <v>44015</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293">
         <f t="shared" ca="1" si="12"/>
-        <v>999</v>
+        <v>811</v>
       </c>
       <c r="B293">
         <f t="shared" ca="1" si="13"/>
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="C293" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>44085</v>
+        <v>44460</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294">
         <f t="shared" ca="1" si="12"/>
-        <v>78</v>
+        <v>795</v>
       </c>
       <c r="B294">
         <f t="shared" ca="1" si="13"/>
-        <v>128</v>
+        <v>396</v>
       </c>
       <c r="C294" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>44379</v>
+        <v>44223</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295">
         <f t="shared" ca="1" si="12"/>
-        <v>889</v>
+        <v>846</v>
       </c>
       <c r="B295">
         <f t="shared" ca="1" si="13"/>
-        <v>373</v>
+        <v>155</v>
       </c>
       <c r="C295" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>44482</v>
+        <v>44136</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296">
         <f t="shared" ca="1" si="12"/>
-        <v>873</v>
+        <v>265</v>
       </c>
       <c r="B296">
         <f t="shared" ca="1" si="13"/>
-        <v>482</v>
+        <v>166</v>
       </c>
       <c r="C296" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>44343</v>
+        <v>44100</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297">
         <f t="shared" ca="1" si="12"/>
-        <v>91</v>
+        <v>964</v>
       </c>
       <c r="B297">
         <f t="shared" ca="1" si="13"/>
-        <v>186</v>
+        <v>70</v>
       </c>
       <c r="C297" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>44295</v>
+        <v>44015</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298">
         <f t="shared" ca="1" si="12"/>
-        <v>900</v>
+        <v>208</v>
       </c>
       <c r="B298">
         <f t="shared" ca="1" si="13"/>
-        <v>80</v>
+        <v>319</v>
       </c>
       <c r="C298" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>44236</v>
+        <v>44127</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299">
         <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <v>201</v>
       </c>
       <c r="B299">
         <f t="shared" ca="1" si="13"/>
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C299" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>44453</v>
+        <v>44318</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300">
         <f t="shared" ca="1" si="12"/>
-        <v>600</v>
+        <v>458</v>
       </c>
       <c r="B300">
         <f t="shared" ca="1" si="13"/>
-        <v>242</v>
+        <v>483</v>
       </c>
       <c r="C300" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>44061</v>
+        <v>44487</v>
       </c>
     </row>
   </sheetData>
